--- a/Hickernell_coa_template.xlsx
+++ b/Hickernell_coa_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="460" windowWidth="23700" windowHeight="21140"/>
+    <workbookView xWindow="14700" yWindow="460" windowWidth="23700" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="174">
   <si>
     <t>A</t>
   </si>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t>Inst. Comp. Math., Chinese Acad. Sci.</t>
+  </si>
+  <si>
+    <t>Mak, Simon</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Roshan, V</t>
+  </si>
+  <si>
+    <t>Kang, Lulu</t>
   </si>
 </sst>
 </file>
@@ -803,11 +815,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1113,30 +1127,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1158,7 +1148,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1198,7 +1187,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1211,6 +1199,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2364,10 +2376,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableC" displayName="TableC" ref="A46:E88" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A46:E88"/>
-  <sortState ref="A47:E88">
-    <sortCondition ref="B46:B88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableC" displayName="TableC" ref="A46:E92" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A46:E92"/>
+  <sortState ref="A47:E92">
+    <sortCondition ref="B46:B92"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="C" dataDxfId="24"/>
@@ -2386,8 +2398,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableD" displayName="TableD" ref="A94:E117" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A94:E117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableD" displayName="TableD" ref="A98:E121" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A98:E121"/>
   <sortState ref="A95:E117">
     <sortCondition ref="B94:B117"/>
   </sortState>
@@ -2408,8 +2420,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableD2" displayName="TableD2" ref="A122:E127" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A122:E127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableD2" displayName="TableD2" ref="A126:E131" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A126:E131"/>
   <tableColumns count="5">
     <tableColumn id="1" name="D" dataDxfId="4"/>
     <tableColumn id="2" name="Name:" dataDxfId="3"/>
@@ -2632,10 +2644,10 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2653,83 +2665,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
@@ -2791,13 +2803,13 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -3051,7 +3063,7 @@
       <c r="C38" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="52"/>
+      <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
@@ -3063,7 +3075,7 @@
       <c r="C39" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
@@ -3075,7 +3087,7 @@
       <c r="C40" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="53"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3086,24 +3098,24 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" s="12" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
     </row>
     <row r="43" spans="1:5" s="9" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -3140,7 +3152,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -3150,29 +3162,29 @@
         <v>78</v>
       </c>
       <c r="D47" s="36"/>
-      <c r="E47" s="67">
+      <c r="E47" s="58">
         <v>41639</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="54" t="s">
         <v>123</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="49">
         <v>42004</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -3181,13 +3193,13 @@
       <c r="C49" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67">
+      <c r="D49" s="57"/>
+      <c r="E49" s="58">
         <v>41639</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="24" t="s">
@@ -3197,12 +3209,12 @@
         <v>43</v>
       </c>
       <c r="D50" s="36"/>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="36" t="s">
@@ -3212,42 +3224,42 @@
         <v>86</v>
       </c>
       <c r="D51" s="37"/>
-      <c r="E51" s="67">
+      <c r="E51" s="58">
         <v>42004</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="55" t="s">
         <v>105</v>
       </c>
       <c r="D52" s="36"/>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="54" t="s">
         <v>124</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="57">
+      <c r="D53" s="61"/>
+      <c r="E53" s="49">
         <v>42004</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="30" t="s">
@@ -3257,27 +3269,27 @@
         <v>49</v>
       </c>
       <c r="D54" s="37"/>
-      <c r="E54" s="57" t="s">
+      <c r="E54" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="57">
+      <c r="D55" s="61"/>
+      <c r="E55" s="49">
         <v>43100</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="24" t="s">
@@ -3287,27 +3299,27 @@
         <v>91</v>
       </c>
       <c r="D56" s="36"/>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="57">
+      <c r="D57" s="54"/>
+      <c r="E57" s="49">
         <v>43100</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -3317,27 +3329,27 @@
         <v>92</v>
       </c>
       <c r="D58" s="36"/>
-      <c r="E58" s="67">
+      <c r="E58" s="58">
         <v>42004</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="57">
+      <c r="D59" s="61"/>
+      <c r="E59" s="49">
         <v>43100</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="24" t="s">
@@ -3347,12 +3359,12 @@
         <v>78</v>
       </c>
       <c r="D60" s="24"/>
-      <c r="E60" s="67">
+      <c r="E60" s="58">
         <v>41639</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -3362,12 +3374,12 @@
         <v>106</v>
       </c>
       <c r="D61" s="36"/>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="24" t="s">
@@ -3377,12 +3389,12 @@
         <v>55</v>
       </c>
       <c r="D62" s="37"/>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="30" t="s">
@@ -3391,504 +3403,488 @@
       <c r="C63" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="57" t="s">
+      <c r="D63" s="46"/>
+      <c r="E63" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="63" t="s">
-        <v>125</v>
+      <c r="A64" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D64" s="63"/>
-      <c r="E64" s="57">
+      <c r="E64" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="48"/>
+      <c r="E65" s="49">
         <v>42004</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62" t="s">
+    <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B66" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="71" t="s">
+      <c r="C66" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="74" t="s">
+      <c r="D66" s="60"/>
+      <c r="E66" s="64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="55" t="s">
+    <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B67" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C67" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="69"/>
-      <c r="E66" s="57" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="55" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B68" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C68" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="57" t="s">
+      <c r="D68" s="24"/>
+      <c r="E68" s="59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B69" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="63" t="s">
-        <v>126</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="57">
+      <c r="D69" s="27"/>
+      <c r="E69" s="64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="54"/>
+      <c r="E70" s="49">
         <v>42004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="61" t="s">
+    <row r="71" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B71" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C71" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="57" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="61" t="s">
+    <row r="72" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="63"/>
+      <c r="E72" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B73" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C73" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D73" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="57">
+      <c r="E73" s="49">
         <v>42004</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="61" t="s">
+    <row r="74" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B74" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C74" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="57" t="s">
+      <c r="D74" s="33"/>
+      <c r="E74" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="61" t="s">
+    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B75" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C75" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="57" t="s">
+      <c r="D75" s="33"/>
+      <c r="E75" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="61" t="s">
+    <row r="76" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="63" t="s">
+      <c r="B76" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C76" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D74" s="63"/>
-      <c r="E74" s="57">
+      <c r="D76" s="54"/>
+      <c r="E76" s="49">
         <v>43100</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="61" t="s">
+    <row r="77" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B77" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C77" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="57" t="s">
+      <c r="D77" s="24"/>
+      <c r="E77" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="61" t="s">
+    <row r="78" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="63"/>
+      <c r="E78" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="63" t="s">
+      <c r="B79" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C79" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="63"/>
-      <c r="E76" s="57">
+      <c r="D79" s="48"/>
+      <c r="E79" s="49">
         <v>41639</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="61" t="s">
+    <row r="80" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="B80" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C80" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="57" t="s">
+      <c r="D80" s="54"/>
+      <c r="E80" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="61" t="s">
+    <row r="81" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B81" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C81" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="63"/>
-      <c r="E78" s="57">
+      <c r="D81" s="48"/>
+      <c r="E81" s="49">
         <v>42004</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="61" t="s">
+    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B82" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C82" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="E79" s="57" t="s">
+      <c r="D82" s="33"/>
+      <c r="E82" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="61" t="s">
+    <row r="83" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B83" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="56" t="s">
+      <c r="C83" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="63"/>
-      <c r="E80" s="57">
+      <c r="D83" s="54"/>
+      <c r="E83" s="49">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="61" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="63" t="s">
+      <c r="B84" s="54" t="s">
         <v>129</v>
-      </c>
-      <c r="C81" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" s="57">
-        <v>42004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="63"/>
-      <c r="E82" s="57">
-        <v>42004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="57">
-        <v>41639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="73"/>
-      <c r="E84" s="57" t="s">
+      <c r="D84" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="49">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="54"/>
+      <c r="E85" s="49">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" s="54"/>
+      <c r="E86" s="49">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="63"/>
+      <c r="E87" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+    <row r="88" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B88" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C88" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="68" t="s">
+      <c r="D88" s="33"/>
+      <c r="E88" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="61" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B89" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C89" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="63"/>
-      <c r="E86" s="68">
+      <c r="D89" s="54"/>
+      <c r="E89" s="59">
         <v>42735</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="25"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="35"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="45" t="s">
+    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="59"/>
+    </row>
+    <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="29"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="35"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-    </row>
-    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D93" s="7" t="s">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D97" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="15" t="s">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B98" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C98" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D98" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E98" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C96" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E97" s="67">
-        <v>42766</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E98" s="74">
-        <v>42766</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="63" t="s">
-        <v>169</v>
+      <c r="B99" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>82</v>
@@ -3897,382 +3893,450 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="61" t="s">
+    <row r="100" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="58">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="64">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C104" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D104" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E100" s="68" t="s">
+      <c r="E104" s="59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="61" t="s">
+    <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B105" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C101" s="64" t="s">
+      <c r="C105" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D105" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E101" s="68" t="s">
+      <c r="E105" s="59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="61" t="s">
+    <row r="106" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B106" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C102" s="64" t="s">
+      <c r="C106" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="C103" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E103" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="C104" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E105" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="75" t="s">
-        <v>99</v>
       </c>
       <c r="D106" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="57" t="s">
+      <c r="E106" s="59" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C107" s="78" t="s">
+      <c r="C111" s="68" t="s">
         <v>159</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E107" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C108" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E108" s="74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E109" s="74">
-        <v>42766</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E110" s="74">
-        <v>42766</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" s="64" t="s">
-        <v>110</v>
       </c>
       <c r="D111" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="57" t="s">
+      <c r="E111" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="61" t="s">
+      <c r="A112" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="64" t="s">
-        <v>147</v>
+      <c r="B112" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="D112" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E113" s="64">
         <v>42766</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="61" t="s">
+    <row r="114" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B113" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E113" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="61" t="s">
+      <c r="B114" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" s="64">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B114" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E114" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C115" s="76" t="s">
-        <v>97</v>
+      <c r="B115" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="D115" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E115" s="68" t="s">
+      <c r="E115" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="23"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="68"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="32"/>
-    </row>
-    <row r="119" spans="1:5" s="13" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="45" t="s">
+    <row r="116" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" s="34">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="23"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="59"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="29"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="32"/>
+    </row>
+    <row r="123" spans="1:5" s="13" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-    </row>
-    <row r="120" spans="1:5" s="2" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+    </row>
+    <row r="124" spans="1:5" s="2" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="44" t="s">
+      <c r="B124" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-    </row>
-    <row r="121" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="7" t="s">
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+    </row>
+    <row r="125" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B126" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C126" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D126" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E126" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
-      <c r="B123" s="24" t="s">
+    <row r="127" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="23"/>
+      <c r="B127" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="25"/>
-    </row>
-    <row r="124" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="25"/>
-    </row>
-    <row r="125" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="40"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="43"/>
-    </row>
-    <row r="126" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="40"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="43"/>
-    </row>
-    <row r="127" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="40"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="43"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="25"/>
+    </row>
+    <row r="128" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="26"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
+    </row>
+    <row r="129" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="40"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="42"/>
+      <c r="E129" s="43"/>
+    </row>
+    <row r="130" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="40"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="43"/>
+    </row>
+    <row r="131" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="40"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="43"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="15">
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="A123:E123"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A94:E94"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A3:E3"/>
@@ -4286,13 +4350,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23:A41">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A123:A127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A127:A131">
       <formula1>"R:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A61:A88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A61:A92">
       <formula1>"A:,C:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A95:A117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A99:A121">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
   </dataValidations>
